--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-02.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-02.xlsx
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  You’re not going to draw the curtains?
+    <t xml:space="preserve">[name="Fumizuki"]  You're not going to draw the curtains?
 </t>
   </si>
   <si>
@@ -1000,11 +1000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  The glass doesn’t matter. Whether Ch’en is safe... does matter.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  She’s skilled. Not like her father, or her mother.
+    <t xml:space="preserve">[name="Fumizuki"]  The glass doesn't matter. Whether Ch'en is safe... does matter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  She's skilled. Not like her father, or her mother.
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Beneath my feet is already another river of lights. Lungmen has already returned to normal, but they still don’t know what will happen next.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Beneath my feet is already another river of lights. Lungmen has already returned to normal, but they still don't know what will happen next.
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  But I’m afraid that...
+    <t xml:space="preserve">[name="Wei Yenwu"]  But I'm afraid that...
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Our enemies have always lurked in the shadows. But we’ve always had to stand before the brightest spotlight.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Our enemies have always lurked in the shadows. But we've always had to stand before the brightest spotlight.
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  ...It’s not enough. Just like back then. If Kashchey... if he was in this situation, he’d burrow deeper.
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...It's not enough. Just like back then. If Kashchey... if he was in this situation, he'd burrow deeper.
 </t>
   </si>
   <si>
@@ -1068,19 +1068,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  It’s just that... if Tal... If Tal really was taught by Kashchey...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  That doctor from Rhodes Island, do you think she’s lying?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I’m not sure. There aren’t many people like that who don’t lie. Rhodes Island is good at hiding itself. They feign weakness before us and will not reveal any secrets.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  But, I would rather believe that Kashchey shaped the current Talulah. We can’t afford the terrible consequences of underestimating the enemy.
+    <t xml:space="preserve">[name="Fumizuki"]  It's just that... if Tal... If Tal really was taught by Kashchey...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  That doctor from Rhodes Island, do you think she's lying?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I'm not sure. There aren't many people like that who don't lie. Rhodes Island is good at hiding itself. They feign weakness before us and will not reveal any secrets.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But, I would rather believe that Kashchey shaped the current Talulah. We can't afford the terrible consequences of underestimating the enemy.
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Because of that, I can’t let Ch'en Hui-chieh do this alone.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Because of that, I can't let Ch'en Hui-chieh do this alone.
 </t>
   </si>
   <si>
@@ -1120,11 +1120,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  They’ve already done too much for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I promised that I’d never ask them to dirty their hands, only to break that promise again and again.
+    <t xml:space="preserve">[name="Wei Yenwu"]  They've already done too much for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I promised that I'd never ask them to dirty their hands, only to break that promise again and again.
 </t>
   </si>
   <si>
@@ -1136,23 +1136,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  I won’t allow it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  You doing that would play right into Kashchey’s hands. That would not be a win at all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  ...Is it not a stretch to say that everything we’ve done since regaining Lungmen has played into Kashchey’s hands?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  We’ve won before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  It was our victory at first. Even though it was painful, you and I, Edward, and Kojui... Without us, he would’ve wiped out this city.
+    <t xml:space="preserve">[name="Fumizuki"]  I won't allow it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You doing that would play right into Kashchey's hands. That would not be a win at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...Is it not a stretch to say that everything we've done since regaining Lungmen has played into Kashchey's hands?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  We've won before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  It was our victory at first. Even though it was painful, you and I, Edward, and Kojui... Without us, he would've wiped out this city.
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  ...I won’t treat Edward’s death as if it was by Kashchey’s hands.
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...I won't treat Edward's death as if it was by Kashchey's hands.
 </t>
   </si>
   <si>
@@ -1188,11 +1188,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  ...Even if I can treat Kal'tsit’s words as fabrications, I cannot deny the facts. There is a conspiracy against Lungmen, and it reads too much like Kashchey’s handwriting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  I don’t believe it. Tal has never been that kind of person. Why is she doing this?
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Even if I can treat Kal'tsit's words as fabrications, I cannot deny the facts. There is a conspiracy against Lungmen, and it reads too much like Kashchey's handwriting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I don't believe it. Tal has never been that kind of person. Why is she doing this?
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Lungmen will not fall. I won’t let any harm come to Lungmen.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Lungmen will not fall. I won't let any harm come to Lungmen.
 </t>
   </si>
   <si>
@@ -1224,11 +1224,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Ah, no. That’s not what I meant. It’s just that...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  No! You can’t!
+    <t xml:space="preserve">[name="Fumizuki"]  Ah, no. That's not what I meant. It's just that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No! You can't!
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  And, without you... I wouldn’t be able to...!
+    <t xml:space="preserve">[name="Wei Yenwu"]  And, without you... I wouldn't be able to...!
 </t>
   </si>
   <si>
@@ -1244,23 +1244,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I won’t let anyone lay a finger on you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I’ll find a place for you to hide. Be it Leithania, or Sargon, or Sami...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  You can’t go back to Higashi. I’ll send you to a distant country, to a small, quiet town that nobody knows about.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I’ll hide you where nobody can follow you. My brother... no matter how much he hates me, he won’t chase you to the ends of the earth... I know he won’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  But, I can’t live like that.
+    <t xml:space="preserve">[name="Wei Yenwu"]  I won't let anyone lay a finger on you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I'll find a place for you to hide. Be it Leithania, or Sargon, or Sami...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You can't go back to Higashi. I'll send you to a distant country, to a small, quiet town that nobody knows about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I'll hide you where nobody can follow you. My brother... no matter how much he hates me, he won't chase you to the ends of the earth... I know he won't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But, I can't live like that.
 </t>
   </si>
   <si>
@@ -1268,7 +1268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Do you want to torture me with your death for the rest of my life? Don’t you remember why your sister died?
+    <t xml:space="preserve">[name="Fumizuki"]  Do you want to torture me with your death for the rest of my life? Don't you remember why your sister died?
 </t>
   </si>
   <si>
@@ -1276,23 +1276,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Wei Yenwu, I told you... I’m fine with it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  To die with you would already be the best terrible outcome I can imagine. Or rather, no matter how terrible it is, it’ll be a fine ending for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t say that, Fumizuki...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I won’t be that kind of person. I won’t let you do that either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  But you know, you can’t stop me. You’ve never been able to stop me from doing what I want to do.
+    <t xml:space="preserve">[name="Fumizuki"]  Wei Yenwu, I told you... I'm fine with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  To die with you would already be the best terrible outcome I can imagine. Or rather, no matter how terrible it is, it'll be a fine ending for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don't say that, Fumizuki...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I won't be that kind of person. I won't let you do that either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But you know, you can't stop me. You've never been able to stop me from doing what I want to do.
 </t>
   </si>
   <si>
@@ -1300,15 +1300,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Yenwu, you’ve always been frank with me. Sometimes, you won’t tell me anything, when you finally come out with it, I’ll always know that you’re telling me the truth.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  I don’t want you to die. But I also don’t want Tal to die. I don’t want any of us to die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  I miss Tal. I’m always reminded of how much she looks like your sister. But, she has Edward’s eyes, and that temper she had when she was little... I have no idea who she got that from. It’s been so, so many years since I’ve seen her.
+    <t xml:space="preserve">[name="Fumizuki"]  Yenwu, you've always been frank with me. Sometimes, you won't tell me anything, when you finally come out with it, I'll always know that you're telling me the truth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I don't want you to die. But I also don't want Tal to die. I don't want any of us to die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I miss Tal. I'm always reminded of how much she looks like your sister. But, she has Edward's eyes, and that temper she had when she was little... I have no idea who she got that from. It's been so, so many years since I've seen her.
 </t>
   </si>
   <si>
@@ -1320,15 +1320,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Yes, and Little Ch’en as well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Little Ch’en is gone, and I won’t be able to see her ever again... I’ll never be able to buy her beautiful clothes and comb her hair into a work of art.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  She... She didn’t like traditional attire that much.
+    <t xml:space="preserve">[name="Fumizuki"]  Yes, and Little Ch'en as well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Little Ch'en is gone, and I won't be able to see her ever again... I'll never be able to buy her beautiful clothes and comb her hair into a work of art.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  She... She didn't like traditional attire that much.
 </t>
   </si>
   <si>
@@ -1336,11 +1336,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  ...But even if that’s the case, even if we’ve said our final farewell, I hope that Little Ch’en can find someplace else to settle down comfortably. That’s what I hope.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  I know you don’t want to rely on Rhodes Island, and I know that you won’t hedge all your bets on them.
+    <t xml:space="preserve">[name="Fumizuki"]  ...But even if that's the case, even if we've said our final farewell, I hope that Little Ch'en can find someplace else to settle down comfortably. That's what I hope.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I know you don't want to rely on Rhodes Island, and I know that you won't hedge all your bets on them.
 </t>
   </si>
   <si>
@@ -1352,19 +1352,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  If they fail, then we shall go together. You don’t want to have the blood of your loved ones on your hands ever again, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  If that happens, I will help you take Tal’s life. Then, we will die together.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  You want her to live as well, don’t you? Is this Lungmen a place that wants all of us to die?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  I would rather never see them again. I would rather never see Little Ch’en and Tal again and forget about them... but I also want them to live on.
+    <t xml:space="preserve">[name="Fumizuki"]  If they fail, then we shall go together. You don't want to have the blood of your loved ones on your hands ever again, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  If that happens, I will help you take Tal's life. Then, we will die together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You want her to live as well, don't you? Is this Lungmen a place that wants all of us to die?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I would rather never see them again. I would rather never see Little Ch'en and Tal again and forget about them... but I also want them to live on.
 </t>
   </si>
   <si>
@@ -1380,7 +1380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  ...Everything I’ve done, from beginning to end, has not only been for your sake.
+    <t xml:space="preserve">[name="Fumizuki"]  ...Everything I've done, from beginning to end, has not only been for your sake.
 </t>
   </si>
   <si>
@@ -1388,7 +1388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Don’t dodge the issue anymore. Look at me.
+    <t xml:space="preserve">[name="Fumizuki"]  Don't dodge the issue anymore. Look at me.
 </t>
   </si>
   <si>
@@ -1400,7 +1400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  It’s fine to cry, Yenwu.
+    <t xml:space="preserve">[name="Fumizuki"]  It's fine to cry, Yenwu.
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  ...I’m fine.
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...I'm fine.
 </t>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t we just want to give them a home? Don’t we want all people like us, who have nowhere to go, to have a warm place to rest?
+    <t xml:space="preserve">Don't we just want to give them a home? Don't we want all people like us, who have nowhere to go, to have a warm place to rest?
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  ...Don’t be like this! You mustn’t!
+    <t xml:space="preserve">[name="Fumizuki"]  ...Don't be like this! You mustn't!
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-02.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-02.xlsx
@@ -1724,7 +1724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="웨이 옌우"]  라이타니아든 사르곤이든 사미든…… 어느 곳이든 당신을 숨겨놓겠어.
+    <t xml:space="preserve">[name="웨이 옌우"]  라이타니엔이든 사르곤이든 사미든…… 어느 곳이든 당신을 숨겨놓겠어.
 </t>
   </si>
   <si>
